--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>6.693881005048752e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>6.693881005048752e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86180.29512624198</v>
+        <v>5988147.3162156</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86180.29512624198</v>
+        <v>5988147.3162156</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494072571.115719</v>
+        <v>53503838.51514104</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15055.54557071092</v>
+        <v>1162793.737564439</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29690.30644800791</v>
+        <v>2257636.447751668</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44332.05728513023</v>
+        <v>3352479.157938897</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59968.20839272512</v>
+        <v>4378713.754323464</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74933.84036316519</v>
+        <v>5472459.123615461</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89899.47233360526</v>
+        <v>6566204.492907458</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>104865.1043040453</v>
+        <v>7659949.862199449</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>119830.7362744854</v>
+        <v>8753695.231491439</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135466.8873820803</v>
+        <v>9779929.827875998</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150446.9719225009</v>
+        <v>10872692.93573867</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165412.603892941</v>
+        <v>11966438.30503066</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180378.2358633811</v>
+        <v>13060183.67432265</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195343.8678338212</v>
+        <v>14153929.04361466</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>210323.9523742416</v>
+        <v>15246692.15147735</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226914.7771805694</v>
+        <v>16150962.78891731</v>
       </c>
     </row>
   </sheetData>
